--- a/Results/coefficients_TSP5F.xlsx
+++ b/Results/coefficients_TSP5F.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
   <si>
     <t>Row</t>
   </si>
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -74,11 +74,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -86,6 +104,24 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,76 +140,76 @@
     <col min="7" max="7" width="12.453125" customWidth="true"/>
     <col min="8" max="8" width="12.453125" customWidth="true"/>
     <col min="9" max="9" width="12.453125" customWidth="true"/>
-    <col min="10" max="10" width="13.08984375" customWidth="true"/>
+    <col min="10" max="10" width="14.08984375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.97627915846234314</v>
+        <v>0.98756822726988858</v>
       </c>
       <c r="F2">
-        <v>-0.48300136161534007</v>
+        <v>-0.49393093265512972</v>
       </c>
       <c r="G2">
-        <v>0.29121620826211703</v>
+        <v>0.28064078958505317</v>
       </c>
       <c r="H2">
-        <v>0.30825472262473569</v>
+        <v>0.30000165233038223</v>
       </c>
       <c r="I2">
-        <v>0.49320270965778701</v>
+        <v>0.48315555984869907</v>
       </c>
       <c r="J2">
-        <v>-0.052989204697115183</v>
+        <v>-0.056679759344056231</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2.5083503563507952</v>
+        <v>2.5473076074413208</v>
       </c>
       <c r="F3">
-        <v>-1.2966045824541039</v>
+        <v>-1.3311428846346938</v>
       </c>
       <c r="G3">
-        <v>5.0316661282005883</v>
+        <v>5.0617745057973824</v>
       </c>
       <c r="H3">
-        <v>5.5088691546315225</v>
+        <v>5.2731409992159364</v>
       </c>
       <c r="I3">
-        <v>2.7424332120160315</v>
+        <v>2.6942448849249825</v>
       </c>
       <c r="J3">
-        <v>-0.23538853411943156</v>
+        <v>-0.2525485858873121</v>
       </c>
     </row>
   </sheetData>
